--- a/subjects/resources/1/it_phys/LR2.xlsx
+++ b/subjects/resources/1/it_phys/LR2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\ИТ в физике\Лабораторная работа 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_phys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Задание 1.2" sheetId="4" r:id="rId2"/>
     <sheet name="Задание 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -717,7 +717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1044,6 +1043,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3485-4A0A-AAE2-9E35683ADC60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1089,7 +1093,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1208,7 +1211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1281,7 +1283,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1359,7 +1360,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1706,6 +1707,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0724-408F-86F4-A12DFFA13D98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1834,6 +1840,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0724-408F-86F4-A12DFFA13D98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1950,6 +1961,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0724-408F-86F4-A12DFFA13D98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2039,6 +2055,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0724-408F-86F4-A12DFFA13D98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2085,7 +2106,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2206,7 +2226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2279,7 +2298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2357,7 +2375,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2407,7 +2425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2702,6 +2719,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9A8-4D8C-BD02-453918E6FBDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2958,6 +2980,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9A8-4D8C-BD02-453918E6FBDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3218,6 +3245,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9A8-4D8C-BD02-453918E6FBDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -3477,6 +3509,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9A8-4D8C-BD02-453918E6FBDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3663,6 +3700,11 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A9A8-4D8C-BD02-453918E6FBDF}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -3839,6 +3881,11 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-A9A8-4D8C-BD02-453918E6FBDF}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -4016,6 +4063,11 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-A9A8-4D8C-BD02-453918E6FBDF}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
           </c:ext>
@@ -4053,7 +4105,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4174,7 +4225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4248,7 +4298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4326,7 +4375,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4671,6 +4720,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1314-449C-9AB6-DD98E9008245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5129,6 +5183,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1314-449C-9AB6-DD98E9008245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5791,6 +5850,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1314-449C-9AB6-DD98E9008245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6657,6 +6721,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1314-449C-9AB6-DD98E9008245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
